--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gylbrhm/Development/19IAS_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9DDE9-B7E1-1A44-AF6F-9BFBC9247B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D450A196-5917-E948-A0C8-05A790FA05D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="290">
   <si>
     <t>ליאור</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>discountRate</t>
+  </si>
+  <si>
+    <t>מספר עובד</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +2938,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2992,11 +2995,6 @@
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="379">
     <cellStyle name="____Solvay - Combined Data" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3682,7 +3680,7 @@
   <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3693,7 +3691,7 @@
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -3713,6 +3711,9 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="32">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="H2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="1" t="s">
         <v>261</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -3781,7 +3782,7 @@
       <c r="H3" s="9">
         <v>42165</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3">
         <v>100</v>
       </c>
       <c r="J3" s="12">
@@ -3825,7 +3826,7 @@
       <c r="H4" s="26">
         <v>42379</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="28">
         <v>72</v>
       </c>
       <c r="J4" s="27">
@@ -3868,7 +3869,7 @@
       <c r="H5" s="26">
         <v>43466</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="28">
         <v>100</v>
       </c>
       <c r="J5" s="27">
@@ -3905,7 +3906,7 @@
         <v>28250</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="34">
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="12">
@@ -3951,7 +3952,7 @@
         <v>12000</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="34">
+      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="12">
@@ -3991,7 +3992,7 @@
       <c r="H8" s="9">
         <v>43160</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8">
         <v>100</v>
       </c>
       <c r="J8" s="12">
@@ -4035,7 +4036,7 @@
         <v>18250</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="34">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" s="12">
@@ -4086,7 +4087,7 @@
       <c r="H10" s="9">
         <v>43649</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10">
         <v>100</v>
       </c>
       <c r="J10" s="12">
@@ -4125,7 +4126,7 @@
         <v>11547.5</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="34">
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="12">
@@ -4176,7 +4177,7 @@
       <c r="H12" s="9">
         <v>43251</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12">
         <v>100</v>
       </c>
       <c r="J12" s="12">
@@ -4216,7 +4217,7 @@
       <c r="H13" s="9">
         <v>43641</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13">
         <v>72</v>
       </c>
       <c r="J13" s="12">
@@ -4254,7 +4255,7 @@
         <v>28250</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="34">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" s="12">
@@ -4295,7 +4296,7 @@
       <c r="H15" s="9">
         <v>43301</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15">
         <v>100</v>
       </c>
       <c r="J15" s="12">
@@ -4335,7 +4336,7 @@
       <c r="H16" s="9">
         <v>43348</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16">
         <v>100</v>
       </c>
       <c r="J16" s="12">
@@ -4373,7 +4374,7 @@
         <v>30000</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="34">
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="12">
@@ -4422,7 +4423,7 @@
       <c r="H18" s="9">
         <v>41316</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18">
         <v>72</v>
       </c>
       <c r="J18" s="12">
@@ -4462,7 +4463,7 @@
       <c r="H19" s="9">
         <v>43588</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19">
         <v>72</v>
       </c>
       <c r="J19" s="12">
@@ -4502,7 +4503,7 @@
       <c r="H20" s="9">
         <v>43770</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20">
         <v>72</v>
       </c>
       <c r="J20" s="12">
@@ -4542,7 +4543,7 @@
       <c r="H21" s="9">
         <v>43641</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21">
         <v>100</v>
       </c>
       <c r="J21" s="12">
@@ -4582,7 +4583,7 @@
       <c r="H22" s="9">
         <v>43556</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22">
         <v>100</v>
       </c>
       <c r="J22" s="12">
@@ -4620,7 +4621,7 @@
         <v>10125</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="34">
+      <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" s="12">
@@ -4669,7 +4670,7 @@
       <c r="H24" s="9">
         <v>37620</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24">
         <v>100</v>
       </c>
       <c r="J24" s="12">
@@ -4709,7 +4710,7 @@
       <c r="H25" s="9">
         <v>43555</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25">
         <v>72</v>
       </c>
       <c r="J25" s="12">
@@ -4749,7 +4750,7 @@
       <c r="H26" s="9">
         <v>43555</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26">
         <v>100</v>
       </c>
       <c r="J26" s="12">
@@ -4797,7 +4798,7 @@
       <c r="H27" s="9">
         <v>43709.5</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27">
         <v>100</v>
       </c>
       <c r="J27" s="12">
@@ -4837,7 +4838,7 @@
       <c r="H28" s="9">
         <v>43710</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28">
         <v>100</v>
       </c>
       <c r="J28" s="12">
@@ -4877,7 +4878,7 @@
       <c r="H29" s="9">
         <v>43798</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29">
         <v>100</v>
       </c>
       <c r="J29" s="12">
@@ -4918,7 +4919,7 @@
       <c r="H30" s="9">
         <v>39465</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30">
         <v>100</v>
       </c>
       <c r="J30" s="12">
@@ -4956,7 +4957,7 @@
         <v>28250</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="34">
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" s="12">
@@ -4997,7 +4998,7 @@
       <c r="H32" s="9">
         <v>43661</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32">
         <v>100</v>
       </c>
       <c r="J32" s="12">
@@ -5043,7 +5044,7 @@
       <c r="H33" s="9">
         <v>43771</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33">
         <v>100</v>
       </c>
       <c r="J33" s="12">
@@ -5083,7 +5084,7 @@
       <c r="H34" s="9">
         <v>43341</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34">
         <v>100</v>
       </c>
       <c r="J34" s="12">
@@ -5121,7 +5122,7 @@
         <v>20750</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="34">
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" s="12">
@@ -5160,7 +5161,7 @@
         <v>7843.75</v>
       </c>
       <c r="H36" s="9"/>
-      <c r="I36" s="34">
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" s="12">
@@ -5200,7 +5201,7 @@
       <c r="H37" s="9">
         <v>43379</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37">
         <v>100</v>
       </c>
       <c r="J37" s="12">
@@ -5240,7 +5241,7 @@
       <c r="H38" s="9">
         <v>43706</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38">
         <v>100</v>
       </c>
       <c r="J38" s="12">
@@ -5286,7 +5287,7 @@
       <c r="H39" s="9">
         <v>43680</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39">
         <v>100</v>
       </c>
       <c r="J39" s="12">
@@ -5326,7 +5327,7 @@
       <c r="H40" s="9">
         <v>42917</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40">
         <v>100</v>
       </c>
       <c r="J40" s="12">
@@ -5366,7 +5367,7 @@
       <c r="H41" s="9">
         <v>41337</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41">
         <v>72</v>
       </c>
       <c r="J41" s="12">
@@ -5406,7 +5407,7 @@
       <c r="H42" s="9">
         <v>41848</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42">
         <v>100</v>
       </c>
       <c r="J42" s="12">
@@ -5446,7 +5447,7 @@
       <c r="H43" s="9">
         <v>42276</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43">
         <v>100</v>
       </c>
       <c r="J43" s="12">
@@ -5492,7 +5493,7 @@
       <c r="H44" s="9">
         <v>40938</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44">
         <v>100</v>
       </c>
       <c r="J44" s="12">
@@ -5532,7 +5533,7 @@
       <c r="H45" s="9">
         <v>43346</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45">
         <v>100</v>
       </c>
       <c r="J45" s="12">
@@ -5572,7 +5573,7 @@
       <c r="H46" s="9">
         <v>43684</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46">
         <v>100</v>
       </c>
       <c r="J46" s="12">
@@ -5613,7 +5614,7 @@
       <c r="H47" s="9">
         <v>41151</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47">
         <v>72</v>
       </c>
       <c r="J47" s="12">
@@ -5653,7 +5654,7 @@
       <c r="H48" s="9">
         <v>43348</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48">
         <v>72</v>
       </c>
       <c r="J48" s="12">
@@ -5691,7 +5692,7 @@
         <v>17000</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49" s="34">
+      <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" s="12">
@@ -5732,7 +5733,7 @@
       <c r="H50" s="9">
         <v>42240</v>
       </c>
-      <c r="I50" s="34">
+      <c r="I50">
         <v>72</v>
       </c>
       <c r="J50" s="12">
@@ -5772,7 +5773,7 @@
       <c r="H51" s="9">
         <v>41122</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51">
         <v>72</v>
       </c>
       <c r="J51" s="12">
@@ -5812,7 +5813,7 @@
       <c r="H52" s="9">
         <v>40816</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52">
         <v>100</v>
       </c>
       <c r="J52" s="12">
@@ -5863,7 +5864,7 @@
       <c r="H53" s="9">
         <v>43767</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53">
         <v>100</v>
       </c>
       <c r="J53" s="12">
@@ -5903,7 +5904,7 @@
       <c r="H54" s="9">
         <v>40343</v>
       </c>
-      <c r="I54" s="34">
+      <c r="I54">
         <v>72</v>
       </c>
       <c r="J54" s="12">
@@ -5950,7 +5951,7 @@
       <c r="H55" s="9">
         <v>43768</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55">
         <v>100</v>
       </c>
       <c r="J55" s="12">
@@ -5996,7 +5997,7 @@
       <c r="H56" s="9">
         <v>41911</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56">
         <v>100</v>
       </c>
       <c r="J56" s="12">
@@ -6042,7 +6043,7 @@
       <c r="H57" s="9">
         <v>43588</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57">
         <v>100</v>
       </c>
       <c r="J57" s="12">
@@ -6088,7 +6089,7 @@
       <c r="H58" s="9">
         <v>43223</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58">
         <v>100</v>
       </c>
       <c r="J58" s="12">
@@ -6132,7 +6133,7 @@
         <v>28625</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="34">
+      <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" s="12">
@@ -6179,7 +6180,7 @@
       <c r="H60" s="9">
         <v>43442</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60">
         <v>100</v>
       </c>
       <c r="J60" s="12">
@@ -6225,7 +6226,7 @@
       <c r="H61" s="9">
         <v>38808</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61">
         <v>100</v>
       </c>
       <c r="J61" s="12">
@@ -6271,7 +6272,7 @@
       <c r="H62" s="9">
         <v>43785</v>
       </c>
-      <c r="I62" s="34">
+      <c r="I62">
         <v>100</v>
       </c>
       <c r="J62" s="12">
@@ -6317,7 +6318,7 @@
       <c r="H63" s="9">
         <v>42156</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63">
         <v>72</v>
       </c>
       <c r="J63" s="12">
@@ -6361,7 +6362,7 @@
         <v>15106.25</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="34">
+      <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" s="12">
@@ -6412,7 +6413,7 @@
       <c r="H65" s="9">
         <v>43555</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65">
         <v>100</v>
       </c>
       <c r="J65" s="12">
@@ -6458,7 +6459,7 @@
       <c r="H66" s="9">
         <v>43555</v>
       </c>
-      <c r="I66" s="34">
+      <c r="I66">
         <v>100</v>
       </c>
       <c r="J66" s="12">
@@ -6502,7 +6503,7 @@
         <v>24000</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="34">
+      <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" s="12">
@@ -6547,7 +6548,7 @@
         <v>30750</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="34">
+      <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" s="12">
@@ -6598,7 +6599,7 @@
       <c r="H69" s="9">
         <v>43162</v>
       </c>
-      <c r="I69" s="34">
+      <c r="I69">
         <v>100</v>
       </c>
       <c r="J69" s="12">
@@ -6642,7 +6643,7 @@
         <v>8875</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="34">
+      <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" s="12">
@@ -6689,7 +6690,7 @@
       <c r="H71" s="9">
         <v>43710</v>
       </c>
-      <c r="I71" s="34">
+      <c r="I71">
         <v>72</v>
       </c>
       <c r="J71" s="12">
@@ -6733,7 +6734,7 @@
         <v>20650</v>
       </c>
       <c r="H72" s="9"/>
-      <c r="I72" s="34">
+      <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" s="12">
@@ -6780,7 +6781,7 @@
       <c r="H73" s="9">
         <v>43707</v>
       </c>
-      <c r="I73" s="34">
+      <c r="I73">
         <v>100</v>
       </c>
       <c r="J73" s="12">
@@ -6826,7 +6827,7 @@
       <c r="H74" s="9">
         <v>43556</v>
       </c>
-      <c r="I74" s="34">
+      <c r="I74">
         <v>72</v>
       </c>
       <c r="J74" s="12">
@@ -6864,7 +6865,7 @@
         <v>40000</v>
       </c>
       <c r="H75" s="9"/>
-      <c r="I75" s="34">
+      <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" s="12">
@@ -6905,7 +6906,7 @@
       <c r="H76" s="9">
         <v>40907</v>
       </c>
-      <c r="I76" s="34">
+      <c r="I76">
         <v>100</v>
       </c>
       <c r="J76" s="12">
@@ -6943,7 +6944,7 @@
         <v>19140</v>
       </c>
       <c r="H77" s="9"/>
-      <c r="I77" s="34">
+      <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" s="12">
@@ -6982,7 +6983,7 @@
         <v>17775</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="34">
+      <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" s="12">
@@ -7021,7 +7022,7 @@
         <v>21600</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="34">
+      <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" s="12">
@@ -7063,7 +7064,7 @@
       <c r="H80" s="9">
         <v>43799</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I80">
         <v>100</v>
       </c>
       <c r="J80" s="12">
@@ -7103,7 +7104,7 @@
       <c r="H81" s="9">
         <v>43717</v>
       </c>
-      <c r="I81" s="34">
+      <c r="I81">
         <v>100</v>
       </c>
       <c r="J81" s="12">
@@ -7149,7 +7150,7 @@
       <c r="H82" s="9">
         <v>43570</v>
       </c>
-      <c r="I82" s="34">
+      <c r="I82">
         <v>72</v>
       </c>
       <c r="J82" s="12">
@@ -7189,7 +7190,7 @@
       <c r="H83" s="9">
         <v>43798</v>
       </c>
-      <c r="I83" s="34">
+      <c r="I83">
         <v>100</v>
       </c>
       <c r="J83" s="12">
@@ -7229,7 +7230,7 @@
       <c r="H84" s="9">
         <v>43101</v>
       </c>
-      <c r="I84" s="34">
+      <c r="I84">
         <v>72</v>
       </c>
       <c r="J84" s="12">
@@ -7269,7 +7270,7 @@
       <c r="H85" s="9">
         <v>43696</v>
       </c>
-      <c r="I85" s="34">
+      <c r="I85">
         <v>100</v>
       </c>
       <c r="J85" s="12">
@@ -7309,7 +7310,7 @@
       <c r="H86" s="9">
         <v>43008</v>
       </c>
-      <c r="I86" s="34">
+      <c r="I86">
         <v>100</v>
       </c>
       <c r="J86" s="12">
@@ -7357,7 +7358,7 @@
       <c r="H87" s="9">
         <v>43767</v>
       </c>
-      <c r="I87" s="34">
+      <c r="I87">
         <v>100</v>
       </c>
       <c r="J87" s="12">
@@ -7397,7 +7398,7 @@
       <c r="H88" s="9">
         <v>40330</v>
       </c>
-      <c r="I88" s="34">
+      <c r="I88">
         <v>72</v>
       </c>
       <c r="J88" s="12">
@@ -7438,7 +7439,7 @@
       <c r="H89" s="9">
         <v>40917</v>
       </c>
-      <c r="I89" s="34">
+      <c r="I89">
         <v>100</v>
       </c>
       <c r="J89" s="12">
@@ -7479,7 +7480,7 @@
       <c r="H90" s="26">
         <v>41253</v>
       </c>
-      <c r="I90" s="36">
+      <c r="I90" s="28">
         <v>50</v>
       </c>
       <c r="J90" s="27">
@@ -7518,7 +7519,7 @@
       <c r="H91" s="26">
         <v>42497</v>
       </c>
-      <c r="I91" s="36">
+      <c r="I91" s="28">
         <v>72</v>
       </c>
       <c r="J91" s="27"/>
@@ -7553,7 +7554,7 @@
       <c r="H92" s="26">
         <v>43466</v>
       </c>
-      <c r="I92" s="36">
+      <c r="I92" s="28">
         <v>100</v>
       </c>
       <c r="J92" s="27"/>
@@ -7589,7 +7590,7 @@
       <c r="H93" s="9">
         <v>43661</v>
       </c>
-      <c r="I93" s="34">
+      <c r="I93">
         <v>50</v>
       </c>
       <c r="J93" s="12">
@@ -7627,7 +7628,7 @@
         <v>34500</v>
       </c>
       <c r="H94" s="9"/>
-      <c r="I94" s="34">
+      <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" s="12">
@@ -7675,7 +7676,7 @@
       <c r="H95" s="9">
         <v>41973</v>
       </c>
-      <c r="I95" s="34">
+      <c r="I95">
         <v>100</v>
       </c>
       <c r="J95" s="12">
@@ -7713,7 +7714,7 @@
         <v>10900</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="34">
+      <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" s="12">
@@ -7754,7 +7755,7 @@
       <c r="H97" s="9">
         <v>43668</v>
       </c>
-      <c r="I97" s="34">
+      <c r="I97">
         <v>100</v>
       </c>
       <c r="J97" s="12">
@@ -7795,7 +7796,7 @@
       <c r="H98" s="9">
         <v>43130</v>
       </c>
-      <c r="I98" s="34">
+      <c r="I98">
         <v>100</v>
       </c>
       <c r="J98" s="12">
@@ -7833,7 +7834,7 @@
         <v>12000</v>
       </c>
       <c r="H99" s="9"/>
-      <c r="I99" s="34">
+      <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" s="12">
@@ -7874,7 +7875,7 @@
       <c r="H100" s="9">
         <v>43771</v>
       </c>
-      <c r="I100" s="34">
+      <c r="I100">
         <v>100</v>
       </c>
       <c r="J100" s="12">
@@ -7914,7 +7915,7 @@
       <c r="H101" s="26">
         <v>43341</v>
       </c>
-      <c r="I101" s="36">
+      <c r="I101" s="28">
         <v>50</v>
       </c>
       <c r="J101" s="27">
@@ -7953,7 +7954,7 @@
       <c r="H102" s="26">
         <v>43466</v>
       </c>
-      <c r="I102" s="36">
+      <c r="I102" s="28">
         <v>100</v>
       </c>
       <c r="J102" s="27"/>
@@ -7989,7 +7990,7 @@
       <c r="H103" s="9">
         <v>43304</v>
       </c>
-      <c r="I103" s="34">
+      <c r="I103">
         <v>50</v>
       </c>
       <c r="J103" s="12">
@@ -8027,7 +8028,7 @@
         <v>20180</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="34">
+      <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" s="12">
@@ -8066,7 +8067,7 @@
         <v>24575</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="34">
+      <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" s="12">
@@ -8107,7 +8108,7 @@
       <c r="H106" s="9">
         <v>43477</v>
       </c>
-      <c r="I106" s="34">
+      <c r="I106">
         <v>100</v>
       </c>
       <c r="J106" s="12">
@@ -8147,7 +8148,7 @@
       <c r="H107" s="9">
         <v>41029</v>
       </c>
-      <c r="I107" s="34">
+      <c r="I107">
         <v>100</v>
       </c>
       <c r="J107" s="12">
@@ -8187,7 +8188,7 @@
       <c r="H108" s="9">
         <v>43528</v>
       </c>
-      <c r="I108" s="34">
+      <c r="I108">
         <v>50</v>
       </c>
       <c r="J108" s="12">
@@ -8227,7 +8228,7 @@
       <c r="H109" s="9">
         <v>43542</v>
       </c>
-      <c r="I109" s="34">
+      <c r="I109">
         <v>50</v>
       </c>
       <c r="J109" s="12">
@@ -8267,7 +8268,7 @@
       <c r="H110" s="9">
         <v>43616</v>
       </c>
-      <c r="I110" s="34">
+      <c r="I110">
         <v>100</v>
       </c>
       <c r="J110" s="12">
@@ -8307,7 +8308,7 @@
       <c r="H111" s="9">
         <v>43379</v>
       </c>
-      <c r="I111" s="34">
+      <c r="I111">
         <v>100</v>
       </c>
       <c r="J111" s="12">
@@ -8348,7 +8349,7 @@
       <c r="H112" s="9">
         <v>43405</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I112">
         <v>50</v>
       </c>
       <c r="J112" s="12">
@@ -8388,7 +8389,7 @@
       <c r="H113" s="9">
         <v>43297</v>
       </c>
-      <c r="I113" s="34">
+      <c r="I113">
         <v>50</v>
       </c>
       <c r="J113" s="12">
@@ -8429,7 +8430,7 @@
       <c r="H114" s="9">
         <v>41211</v>
       </c>
-      <c r="I114" s="34">
+      <c r="I114">
         <v>50</v>
       </c>
       <c r="J114" s="12">
@@ -8469,7 +8470,7 @@
       <c r="H115" s="9">
         <v>43549</v>
       </c>
-      <c r="I115" s="34">
+      <c r="I115">
         <v>50</v>
       </c>
       <c r="J115" s="12">
@@ -8510,7 +8511,7 @@
       <c r="H116" s="9">
         <v>43451</v>
       </c>
-      <c r="I116" s="34">
+      <c r="I116">
         <v>50</v>
       </c>
       <c r="J116" s="12">
@@ -8548,7 +8549,7 @@
         <v>25000</v>
       </c>
       <c r="H117" s="9"/>
-      <c r="I117" s="34">
+      <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" s="12">
@@ -8587,7 +8588,7 @@
         <v>21776.25</v>
       </c>
       <c r="H118" s="9"/>
-      <c r="I118" s="34">
+      <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" s="12">
@@ -8629,7 +8630,7 @@
       <c r="H119" s="9">
         <v>43356</v>
       </c>
-      <c r="I119" s="34">
+      <c r="I119">
         <v>50</v>
       </c>
       <c r="J119" s="12">
@@ -8667,7 +8668,7 @@
         <v>14000</v>
       </c>
       <c r="H120" s="9"/>
-      <c r="I120" s="34">
+      <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" s="4">
@@ -8715,7 +8716,7 @@
         <v>15125</v>
       </c>
       <c r="H121" s="9"/>
-      <c r="I121" s="34">
+      <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" s="12">
@@ -8757,7 +8758,7 @@
       <c r="H122" s="9">
         <v>43130</v>
       </c>
-      <c r="I122" s="34">
+      <c r="I122">
         <v>100</v>
       </c>
       <c r="J122" s="12">
@@ -8795,7 +8796,7 @@
         <v>21125</v>
       </c>
       <c r="H123" s="9"/>
-      <c r="I123" s="34">
+      <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" s="12">
@@ -8834,7 +8835,7 @@
         <v>14300</v>
       </c>
       <c r="H124" s="9"/>
-      <c r="I124" s="34">
+      <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" s="12">
@@ -8873,7 +8874,7 @@
         <v>18875</v>
       </c>
       <c r="H125" s="9"/>
-      <c r="I125" s="34">
+      <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" s="12">
@@ -8914,7 +8915,7 @@
       <c r="H126" s="9">
         <v>40644</v>
       </c>
-      <c r="I126" s="34">
+      <c r="I126">
         <v>100</v>
       </c>
       <c r="J126" s="12">
@@ -8954,7 +8955,7 @@
       <c r="H127" s="9">
         <v>43706</v>
       </c>
-      <c r="I127" s="34">
+      <c r="I127">
         <v>50</v>
       </c>
       <c r="J127" s="12">
@@ -8992,7 +8993,7 @@
         <v>24500</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="34">
+      <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" s="12">
@@ -9033,7 +9034,7 @@
       <c r="H129" s="9">
         <v>43680</v>
       </c>
-      <c r="I129" s="34">
+      <c r="I129">
         <v>100</v>
       </c>
       <c r="J129" s="12">
@@ -9074,7 +9075,7 @@
       <c r="H130" s="9">
         <v>42003</v>
       </c>
-      <c r="I130" s="34">
+      <c r="I130">
         <v>100</v>
       </c>
       <c r="J130" s="12">
@@ -9114,7 +9115,7 @@
       <c r="H131" s="9">
         <v>42126</v>
       </c>
-      <c r="I131" s="34">
+      <c r="I131">
         <v>100</v>
       </c>
       <c r="J131" s="12">
@@ -9152,7 +9153,7 @@
         <v>6125</v>
       </c>
       <c r="H132" s="9"/>
-      <c r="I132" s="34">
+      <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" s="12">
@@ -9191,7 +9192,7 @@
         <v>6500</v>
       </c>
       <c r="H133" s="9"/>
-      <c r="I133" s="34">
+      <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" s="12">
@@ -9237,7 +9238,7 @@
         <v>6125</v>
       </c>
       <c r="H134" s="9"/>
-      <c r="I134" s="34">
+      <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" s="12">
@@ -9283,7 +9284,7 @@
         <v>7000</v>
       </c>
       <c r="H135" s="9"/>
-      <c r="I135" s="34">
+      <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" s="12">
@@ -9322,7 +9323,7 @@
         <v>7312.5</v>
       </c>
       <c r="H136" s="9"/>
-      <c r="I136" s="34">
+      <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" s="12">
@@ -9363,7 +9364,7 @@
       <c r="H137" s="9">
         <v>42491</v>
       </c>
-      <c r="I137" s="34">
+      <c r="I137">
         <v>50</v>
       </c>
       <c r="J137" s="12">
@@ -9401,7 +9402,7 @@
         <v>6750</v>
       </c>
       <c r="H138" s="9"/>
-      <c r="I138" s="34">
+      <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" s="12">
@@ -9443,7 +9444,7 @@
       <c r="H139" s="9">
         <v>42667</v>
       </c>
-      <c r="I139" s="34">
+      <c r="I139">
         <v>100</v>
       </c>
       <c r="J139" s="12">
@@ -9481,7 +9482,7 @@
         <v>6750</v>
       </c>
       <c r="H140" s="9"/>
-      <c r="I140" s="34">
+      <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" s="12">
@@ -9520,7 +9521,7 @@
         <v>12000</v>
       </c>
       <c r="H141" s="9"/>
-      <c r="I141" s="34">
+      <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" s="12">
@@ -9559,7 +9560,7 @@
         <v>7125</v>
       </c>
       <c r="H142" s="9"/>
-      <c r="I142" s="34">
+      <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" s="12">
@@ -9598,7 +9599,7 @@
         <v>11343.75</v>
       </c>
       <c r="H143" s="9"/>
-      <c r="I143" s="34">
+      <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" s="12">
@@ -9640,7 +9641,7 @@
       <c r="H144" s="9">
         <v>43157</v>
       </c>
-      <c r="I144" s="34">
+      <c r="I144">
         <v>100</v>
       </c>
       <c r="J144" s="12">
@@ -9680,7 +9681,7 @@
       <c r="H145" s="9">
         <v>42491</v>
       </c>
-      <c r="I145" s="34">
+      <c r="I145">
         <v>50</v>
       </c>
       <c r="J145" s="12">
@@ -9718,7 +9719,7 @@
         <v>7250</v>
       </c>
       <c r="H146" s="9"/>
-      <c r="I146" s="34">
+      <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" s="12">
@@ -9757,7 +9758,7 @@
         <v>6125</v>
       </c>
       <c r="H147" s="9"/>
-      <c r="I147" s="34">
+      <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" s="12">
@@ -9803,7 +9804,7 @@
         <v>10750</v>
       </c>
       <c r="H148" s="9"/>
-      <c r="I148" s="34">
+      <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" s="12">
@@ -9842,7 +9843,7 @@
         <v>6500</v>
       </c>
       <c r="H149" s="9"/>
-      <c r="I149" s="34">
+      <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" s="12">
@@ -9883,7 +9884,7 @@
       <c r="H150" s="9">
         <v>43648</v>
       </c>
-      <c r="I150" s="34">
+      <c r="I150">
         <v>100</v>
       </c>
       <c r="J150" s="12">
@@ -9921,7 +9922,7 @@
         <v>6375</v>
       </c>
       <c r="H151" s="9"/>
-      <c r="I151" s="34">
+      <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" s="12">
@@ -9967,7 +9968,7 @@
         <v>11062.5</v>
       </c>
       <c r="H152" s="9"/>
-      <c r="I152" s="34">
+      <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" s="12">
@@ -10005,7 +10006,7 @@
         <v>12625</v>
       </c>
       <c r="H153" s="9"/>
-      <c r="I153" s="34">
+      <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" s="12">
@@ -10043,7 +10044,7 @@
         <v>9500</v>
       </c>
       <c r="H154" s="9"/>
-      <c r="I154" s="34">
+      <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" s="12">
@@ -10081,7 +10082,7 @@
         <v>6250</v>
       </c>
       <c r="H155" s="9"/>
-      <c r="I155" s="34">
+      <c r="I155">
         <v>0</v>
       </c>
       <c r="J155" s="12">
@@ -10119,7 +10120,7 @@
         <v>6500</v>
       </c>
       <c r="H156" s="9"/>
-      <c r="I156" s="34">
+      <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" s="12">
